--- a/xlsx/rectangular.xlsx
+++ b/xlsx/rectangular.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrrk-plate/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A64245-2B4A-AF44-A682-18300A445381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBCB812-E2A4-8040-9455-6F6C882A0B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="5400" windowWidth="28240" windowHeight="17440" activeTab="3" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
+    <workbookView xWindow="11480" yWindow="5400" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="h" sheetId="5" r:id="rId1"/>
+    <sheet name="L2" sheetId="1" r:id="rId2"/>
+    <sheet name="H1" sheetId="2" r:id="rId3"/>
+    <sheet name="H2" sheetId="3" r:id="rId4"/>
+    <sheet name="H3" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +34,43 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
+  <si>
+    <t>log₁₀h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GI-Penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RKGSI-Penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GI-Nitsche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RKGSI-HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76,9 +114,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,52 +434,396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357BA77-AC59-9943-8B53-4516BD1B37CC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA6FC3E-3AB0-FC44-B038-225E15A8B2DD}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <f>LOG10(A2/B2)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <f>LOG10(A2/B3)</f>
+        <v>-1.3010299956639813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <f>LOG10(A2/B4)</f>
+        <v>-1.6020599913279623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <f>LOG10(A2/B5)</f>
+        <v>-1.9030899869919435</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B4B654-5763-AF48-A7F2-52B537A84F56}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357BA77-AC59-9943-8B53-4516BD1B37CC}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <f>h!C2</f>
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-2.4616504451140369</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <f>h!C3</f>
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="F3">
+        <v>-2.5481169889021791</v>
+      </c>
+      <c r="L3">
+        <f>(F3-F2)/(A3-A2)</f>
+        <v>0.28723564107763794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <f>h!C4</f>
+        <v>-1.6020599913279623</v>
+      </c>
+      <c r="F4">
+        <v>-3.9598538729432913</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L5" si="0">(F4-F3)/(A4-A3)</f>
+        <v>4.6896884176849154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <f>h!C5</f>
+        <v>-1.9030899869919435</v>
+      </c>
+      <c r="F5">
+        <v>-4.1136477433174203</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.51089217881728444</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECBF63E-1D42-0143-8C4B-0C51ABB95CB7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B4B654-5763-AF48-A7F2-52B537A84F56}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <f>h!C2</f>
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-2.0425982554394078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <f>h!C3</f>
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="F3">
+        <v>-2.0764470551194618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <f>h!C4</f>
+        <v>-1.6020599913279623</v>
+      </c>
+      <c r="F4">
+        <v>-2.9482120750985747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <f>h!C5</f>
+        <v>-1.9030899869919435</v>
+      </c>
+      <c r="F5">
+        <v>-3.5601872737421423</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F0EA69-7794-FB45-9F94-24E0DEA4E386}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECBF63E-1D42-0143-8C4B-0C51ABB95CB7}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <f>h!C2</f>
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1.1167870658008248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <f>h!C3</f>
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="F3">
+        <v>-1.0288256554682833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <f>h!C4</f>
+        <v>-1.6020599913279623</v>
+      </c>
+      <c r="F4">
+        <v>-1.5931521151972172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <f>h!C5</f>
+        <v>-1.9030899869919435</v>
+      </c>
+      <c r="F5">
+        <v>-1.9028649066403251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F0EA69-7794-FB45-9F94-24E0DEA4E386}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <f>h!C2</f>
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-0.42418048751203946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <f>h!C3</f>
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="F3">
+        <v>-2.4155396800256412E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <f>h!C4</f>
+        <v>-1.6020599913279623</v>
+      </c>
+      <c r="F4">
+        <v>-0.27558875105476449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <f>h!C5</f>
+        <v>-1.9030899869919435</v>
+      </c>
+      <c r="F5">
+        <v>-0.27872839029771146</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/rectangular.xlsx
+++ b/xlsx/rectangular.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrrk-plate/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBCB812-E2A4-8040-9455-6F6C882A0B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9831B11F-AFB7-3147-92EE-03C8FDCA5456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="5400" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="1" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
   </bookViews>
   <sheets>
     <sheet name="h" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
   <si>
     <t>log₁₀h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,13 +69,28 @@
   <si>
     <t>Slope</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>GI-Penalty</t>
+  </si>
+  <si>
+    <t>RKGSI-Penalty</t>
+  </si>
+  <si>
+    <t>GI-Nitsche</t>
+  </si>
+  <si>
+    <t>RKGSI-HR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +103,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -114,11 +137,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,7 +467,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -501,112 +530,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357BA77-AC59-9943-8B53-4516BD1B37CC}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>-3.6689511069656531</v>
+      </c>
+      <c r="B2">
+        <v>-3.6689511069656531</v>
+      </c>
+      <c r="C2">
+        <v>-3.6689511069656531</v>
+      </c>
+      <c r="D2">
+        <v>-3.6689511069656531</v>
+      </c>
+      <c r="E2">
+        <v>-3.8575421034895641</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <f>h!C2</f>
-        <v>-1</v>
-      </c>
-      <c r="F2">
-        <v>-2.4616504451140369</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
-        <f>h!C3</f>
-        <v>-1.3010299956639813</v>
-      </c>
-      <c r="F3">
-        <v>-2.5481169889021791</v>
-      </c>
-      <c r="L3">
-        <f>(F3-F2)/(A3-A2)</f>
-        <v>0.28723564107763794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>-5.834684806133569</v>
+      </c>
+      <c r="B3">
+        <v>-5.834684806133569</v>
+      </c>
+      <c r="C3">
+        <v>-5.834684806133569</v>
+      </c>
+      <c r="D3">
+        <v>-5.834684806133569</v>
+      </c>
+      <c r="E3">
+        <v>-5.3694721489610906</v>
+      </c>
+      <c r="I3">
+        <f>(D3-D2)/(h!C3-h!C2)</f>
+        <v>7.1944116213102332</v>
+      </c>
+      <c r="J3">
+        <f>(E3-E2)/(h!C3-h!C2)</f>
+        <v>5.0225228955561905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
-        <f>h!C4</f>
-        <v>-1.6020599913279623</v>
-      </c>
-      <c r="F4">
-        <v>-3.9598538729432913</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L5" si="0">(F4-F3)/(A4-A3)</f>
-        <v>4.6896884176849154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>-7.150301292046068</v>
+      </c>
+      <c r="B4">
+        <v>-7.150301292046068</v>
+      </c>
+      <c r="C4">
+        <v>-7.150301292046068</v>
+      </c>
+      <c r="D4">
+        <v>-7.150301292046068</v>
+      </c>
+      <c r="E4">
+        <v>-6.4332029132013675</v>
+      </c>
+      <c r="I4">
+        <f>(D4-D3)/(h!C4-h!C3)</f>
+        <v>4.3703833666497163</v>
+      </c>
+      <c r="J4">
+        <f>(E4-E3)/(h!C4-h!C3)</f>
+        <v>3.5336371111257829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
-        <f>h!C5</f>
-        <v>-1.9030899869919435</v>
-      </c>
-      <c r="F5">
-        <v>-4.1136477433174203</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0.51089217881728444</v>
+        <v>-8.4797565941363828</v>
+      </c>
+      <c r="B5">
+        <v>-8.4797565941363828</v>
+      </c>
+      <c r="C5">
+        <v>-8.4797565941363828</v>
+      </c>
+      <c r="D5">
+        <v>-8.4797565941363828</v>
+      </c>
+      <c r="E5">
+        <v>-7.9536925605053597</v>
+      </c>
+      <c r="I5">
+        <f>(D5-D4)/(h!C5-h!C4)</f>
+        <v>4.4163549189107814</v>
+      </c>
+      <c r="J5">
+        <f>(E5-E4)/(h!C5-h!C4)</f>
+        <v>5.0509572773645068</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -615,71 +686,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B4B654-5763-AF48-A7F2-52B537A84F56}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I3" sqref="I3:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="D2">
+        <v>-3.1902861657771164</v>
+      </c>
+      <c r="E2">
+        <v>-3.2462712535240916</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <f>h!C2</f>
-        <v>-1</v>
-      </c>
-      <c r="F2">
-        <v>-2.0425982554394078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <f>h!C3</f>
-        <v>-1.3010299956639813</v>
-      </c>
-      <c r="F3">
-        <v>-2.0764470551194618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <f>h!C4</f>
-        <v>-1.6020599913279623</v>
-      </c>
-      <c r="F4">
-        <v>-2.9482120750985747</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <f>h!C5</f>
-        <v>-1.9030899869919435</v>
-      </c>
-      <c r="F5">
-        <v>-3.5601872737421423</v>
+    <row r="3" spans="1:10">
+      <c r="D3">
+        <v>-4.7394670907555847</v>
+      </c>
+      <c r="E3">
+        <v>-4.4746561526318063</v>
+      </c>
+      <c r="I3">
+        <f>(D3-D2)/(h!C3-h!C2)</f>
+        <v>5.1462676387495643</v>
+      </c>
+      <c r="J3">
+        <f>(E3-E2)/(h!C3-h!C2)</f>
+        <v>4.0806063076812942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="D4">
+        <v>-5.7855693035383711</v>
+      </c>
+      <c r="E4">
+        <v>-4.9466029436243844</v>
+      </c>
+      <c r="I4">
+        <f>(D4-D3)/(h!C4-h!C3)</f>
+        <v>3.4750763307669774</v>
+      </c>
+      <c r="J4">
+        <f>(E4-E3)/(h!C4-h!C3)</f>
+        <v>1.56777330429018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="D5">
+        <v>-6.8344866689914801</v>
+      </c>
+      <c r="E5">
+        <v>-6.4170084296656009</v>
+      </c>
+      <c r="I5">
+        <f>(D5-D4)/(h!C5-h!C4)</f>
+        <v>3.4844280655139168</v>
+      </c>
+      <c r="J5">
+        <f>(E5-E4)/(h!C5-h!C4)</f>
+        <v>4.8845812949568232</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -687,71 +800,122 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECBF63E-1D42-0143-8C4B-0C51ABB95CB7}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="I3" sqref="I3:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <f>h!C2</f>
-        <v>-1</v>
-      </c>
-      <c r="F2">
-        <v>-1.1167870658008248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <f>h!C3</f>
-        <v>-1.3010299956639813</v>
-      </c>
-      <c r="F3">
-        <v>-1.0288256554682833</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <f>h!C4</f>
-        <v>-1.6020599913279623</v>
-      </c>
-      <c r="F4">
-        <v>-1.5931521151972172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <f>h!C5</f>
-        <v>-1.9030899869919435</v>
-      </c>
-      <c r="F5">
-        <v>-1.9028649066403251</v>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="D2">
+        <v>-1.9818398630210901</v>
+      </c>
+      <c r="E2">
+        <v>-1.2774442262850769</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="D3">
+        <v>-2.570326074529365</v>
+      </c>
+      <c r="E3">
+        <v>-1.8493060970554132</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <f>(D3-D2)/(h!C3-h!C2)</f>
+        <v>1.9549088794631648</v>
+      </c>
+      <c r="J3" s="1">
+        <f>(E3-E2)/(h!C3-h!C2)</f>
+        <v>1.8996840149068257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="D4">
+        <v>-3.1461755261683177</v>
+      </c>
+      <c r="E4">
+        <v>-2.4439501485559032</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <f>(D4-D3)/(h!C4-h!C3)</f>
+        <v>1.9129304718249196</v>
+      </c>
+      <c r="J4" s="1">
+        <f>(E4-E3)/(h!C4-h!C3)</f>
+        <v>1.9753647811371267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="D5">
+        <v>-3.7356696650727574</v>
+      </c>
+      <c r="E5">
+        <v>-3.0458426841074173</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <f>(D5-D4)/(h!C5-h!C4)</f>
+        <v>1.9582571417980912</v>
+      </c>
+      <c r="J5" s="1">
+        <f>(E5-E4)/(h!C5-h!C4)</f>
+        <v>1.999443723951565</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -759,71 +923,122 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F0EA69-7794-FB45-9F94-24E0DEA4E386}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <f>h!C2</f>
-        <v>-1</v>
-      </c>
-      <c r="F2">
-        <v>-0.42418048751203946</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <f>h!C3</f>
-        <v>-1.3010299956639813</v>
-      </c>
-      <c r="F3">
-        <v>-2.4155396800256412E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <f>h!C4</f>
-        <v>-1.6020599913279623</v>
-      </c>
-      <c r="F4">
-        <v>-0.27558875105476449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <f>h!C5</f>
-        <v>-1.9030899869919435</v>
-      </c>
-      <c r="F5">
-        <v>-0.27872839029771146</v>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="D2">
+        <v>-1.1120651100839942</v>
+      </c>
+      <c r="E2">
+        <v>-0.81686747880637356</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="D3">
+        <v>-1.5699359919737954</v>
+      </c>
+      <c r="E3">
+        <v>-1.2515140318465474</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <f>(D3-D2)/(h!C3-h!C2)</f>
+        <v>1.5210141463805835</v>
+      </c>
+      <c r="J3" s="1">
+        <f>(E3-E2)/(h!C3-h!C2)</f>
+        <v>1.4438645958901033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="D4">
+        <v>-2.0053070570172093</v>
+      </c>
+      <c r="E4">
+        <v>-1.6668040278340741</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <f>(D4-D3)/(h!C4-h!C3)</f>
+        <v>1.4462713726687508</v>
+      </c>
+      <c r="J4" s="1">
+        <f>(E4-E3)/(h!C4-h!C3)</f>
+        <v>1.3795635051966257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="D5">
+        <v>-2.4383062699231139</v>
+      </c>
+      <c r="E5">
+        <v>-2.1045972389537244</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <f>(D5-D4)/(h!C5-h!C4)</f>
+        <v>1.4383922504162387</v>
+      </c>
+      <c r="J5" s="1">
+        <f>(E5-E4)/(h!C5-h!C4)</f>
+        <v>1.4543175677693205</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/rectangular.xlsx
+++ b/xlsx/rectangular.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrrk-plate/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9831B11F-AFB7-3147-92EE-03C8FDCA5456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FF89BA-41E9-5C41-9C30-98D19F00B80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="1" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>log₁₀h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Slope</t>
-  </si>
-  <si>
-    <t>GI-Penalty</t>
   </si>
   <si>
     <t>RKGSI-Penalty</t>
@@ -533,11 +530,12 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
@@ -560,7 +558,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>7</v>
       </c>
       <c r="G1" s="2"/>
@@ -579,10 +577,10 @@
         <v>-3.6689511069656531</v>
       </c>
       <c r="D2">
-        <v>-3.6689511069656531</v>
+        <v>-3.4954811546125288</v>
       </c>
       <c r="E2">
-        <v>-3.8575421034895641</v>
+        <v>-3.6010309124634481</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -611,18 +609,18 @@
         <v>-5.834684806133569</v>
       </c>
       <c r="D3">
-        <v>-5.834684806133569</v>
+        <v>-5.2872940351028612</v>
       </c>
       <c r="E3">
-        <v>-5.3694721489610906</v>
+        <v>-5.2389147571698365</v>
       </c>
       <c r="I3">
         <f>(D3-D2)/(h!C3-h!C2)</f>
-        <v>7.1944116213102332</v>
+        <v>5.9522735484818856</v>
       </c>
       <c r="J3">
         <f>(E3-E2)/(h!C3-h!C2)</f>
-        <v>5.0225228955561905</v>
+        <v>5.4409323598922805</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -636,18 +634,18 @@
         <v>-7.150301292046068</v>
       </c>
       <c r="D4">
-        <v>-7.150301292046068</v>
+        <v>-6.7570961992678447</v>
       </c>
       <c r="E4">
-        <v>-6.4332029132013675</v>
+        <v>-6.7086987948399495</v>
       </c>
       <c r="I4">
         <f>(D4-D3)/(h!C4-h!C3)</f>
-        <v>4.3703833666497163</v>
+        <v>4.8825771030659082</v>
       </c>
       <c r="J4">
         <f>(E4-E3)/(h!C4-h!C3)</f>
-        <v>3.5336371111257829</v>
+        <v>4.8825168881533365</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -661,18 +659,18 @@
         <v>-8.4797565941363828</v>
       </c>
       <c r="D5">
-        <v>-8.4797565941363828</v>
+        <v>-8.0258033901727028</v>
       </c>
       <c r="E5">
-        <v>-7.9536925605053597</v>
+        <v>-8.01276920371558</v>
       </c>
       <c r="I5">
         <f>(D5-D4)/(h!C5-h!C4)</f>
-        <v>4.4163549189107814</v>
+        <v>4.2145540616524722</v>
       </c>
       <c r="J5">
         <f>(E5-E4)/(h!C5-h!C4)</f>
-        <v>5.0509572773645068</v>
+        <v>4.4283111624725793</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +687,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -710,7 +708,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>7</v>
       </c>
       <c r="G1" s="2"/>
@@ -720,10 +718,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="D2">
-        <v>-3.1902861657771164</v>
+        <v>-2.7785278088167815</v>
       </c>
       <c r="E2">
-        <v>-3.2462712535240916</v>
+        <v>-2.7081502207093369</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -743,50 +741,50 @@
     </row>
     <row r="3" spans="1:10">
       <c r="D3">
-        <v>-4.7394670907555847</v>
+        <v>-3.8561587992844695</v>
       </c>
       <c r="E3">
-        <v>-4.4746561526318063</v>
+        <v>-3.8530277711626657</v>
       </c>
       <c r="I3">
         <f>(D3-D2)/(h!C3-h!C2)</f>
-        <v>5.1462676387495643</v>
+        <v>3.5798126631559071</v>
       </c>
       <c r="J3">
         <f>(E3-E2)/(h!C3-h!C2)</f>
-        <v>4.0806063076812942</v>
+        <v>3.8032009000567362</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="D4">
-        <v>-5.7855693035383711</v>
+        <v>-4.8862270262760061</v>
       </c>
       <c r="E4">
-        <v>-4.9466029436243844</v>
+        <v>-4.8882502229463665</v>
       </c>
       <c r="I4">
         <f>(D4-D3)/(h!C4-h!C3)</f>
-        <v>3.4750763307669774</v>
+        <v>3.4218125828940003</v>
       </c>
       <c r="J4">
         <f>(E4-E3)/(h!C4-h!C3)</f>
-        <v>1.56777330429018</v>
+        <v>3.4389345470384551</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="D5">
-        <v>-6.8344866689914801</v>
+        <v>-5.9184585015878968</v>
       </c>
       <c r="E5">
-        <v>-6.4170084296656009</v>
+        <v>-6.603719387541253</v>
       </c>
       <c r="I5">
         <f>(D5-D4)/(h!C5-h!C4)</f>
-        <v>3.4844280655139168</v>
+        <v>3.4289987382655998</v>
       </c>
       <c r="J5">
         <f>(E5-E4)/(h!C5-h!C4)</f>
-        <v>4.8845812949568232</v>
+        <v>6.6622760077419656</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +801,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -824,7 +822,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="3">
         <v>8</v>
       </c>
       <c r="G1" s="3"/>
@@ -834,82 +832,79 @@
     </row>
     <row r="2" spans="1:10">
       <c r="D2">
-        <v>-1.9818398630210901</v>
+        <v>-1.3786362584694558</v>
       </c>
       <c r="E2">
-        <v>-1.2774442262850769</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>-1.3720974879507923</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s" s="1">
         <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="D3">
-        <v>-2.570326074529365</v>
+        <v>-1.9498862043575595</v>
       </c>
       <c r="E3">
-        <v>-1.8493060970554132</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>-1.949807038206411</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1">
         <f>(D3-D2)/(h!C3-h!C2)</f>
-        <v>1.9549088794631648</v>
+        <v>1.8976512444485769</v>
       </c>
       <c r="J3" s="1">
         <f>(E3-E2)/(h!C3-h!C2)</f>
-        <v>1.8996840149068257</v>
+        <v>1.9191095856788818</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="D4">
-        <v>-3.1461755261683177</v>
+        <v>-2.5381373103976475</v>
       </c>
       <c r="E4">
-        <v>-2.4439501485559032</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>-2.5381237196443962</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1">
         <f>(D4-D3)/(h!C4-h!C3)</f>
-        <v>1.9129304718249196</v>
+        <v>1.954127876003134</v>
       </c>
       <c r="J4" s="1">
         <f>(E4-E3)/(h!C4-h!C3)</f>
-        <v>1.9753647811371267</v>
+        <v>1.9543457127597426</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="D5">
-        <v>-3.7356696650727574</v>
+        <v>-3.1341979620076259</v>
       </c>
       <c r="E5">
-        <v>-3.0458426841074173</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>-3.1507706010915957</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1">
         <f>(D5-D4)/(h!C5-h!C4)</f>
-        <v>1.9582571417980912</v>
+        <v>1.9800706248400552</v>
       </c>
       <c r="J5" s="1">
         <f>(E5-E4)/(h!C5-h!C4)</f>
-        <v>1.999443723951565</v>
+        <v>1.980189080316433</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +921,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -947,7 +942,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="3">
         <v>8</v>
       </c>
       <c r="G1" s="3"/>
@@ -957,82 +952,79 @@
     </row>
     <row r="2" spans="1:10">
       <c r="D2">
-        <v>-1.1120651100839942</v>
+        <v>-1.024623047223739</v>
       </c>
       <c r="E2">
-        <v>-0.81686747880637356</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>-0.97970137871980811</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s" s="1">
         <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="D3">
-        <v>-1.5699359919737954</v>
+        <v>-1.4990858738882005</v>
       </c>
       <c r="E3">
-        <v>-1.2515140318465474</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>-1.4933510926941607</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1">
         <f>(D3-D2)/(h!C3-h!C2)</f>
-        <v>1.5210141463805835</v>
+        <v>1.576131393876347</v>
       </c>
       <c r="J3" s="1">
         <f>(E3-E2)/(h!C3-h!C2)</f>
-        <v>1.4438645958901033</v>
+        <v>1.7063074157822593</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="D4">
-        <v>-2.0053070570172093</v>
+        <v>-1.9591796136904363</v>
       </c>
       <c r="E4">
-        <v>-1.6668040278340741</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>-1.9563388658130487</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1">
         <f>(D4-D3)/(h!C4-h!C3)</f>
-        <v>1.4462713726687508</v>
+        <v>1.5283983205308438</v>
       </c>
       <c r="J4" s="1">
         <f>(E4-E3)/(h!C4-h!C3)</f>
-        <v>1.3795635051966257</v>
+        <v>1.5380120911129711</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="D5">
-        <v>-2.4383062699231139</v>
+        <v>-2.4128498126373179</v>
       </c>
       <c r="E5">
-        <v>-2.1045972389537244</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>-2.1922645427822722</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1">
         <f>(D5-D4)/(h!C5-h!C4)</f>
-        <v>1.4383922504162387</v>
+        <v>1.5070597796947849</v>
       </c>
       <c r="J5" s="1">
         <f>(E5-E4)/(h!C5-h!C4)</f>
-        <v>1.4543175677693205</v>
+        <v>1.5157028847888676</v>
       </c>
     </row>
   </sheetData>
